--- a/src/main/resources/examples/ralie-usina-example-simple-2.xlsx
+++ b/src/main/resources/examples/ralie-usina-example-simple-2.xlsx
@@ -50384,7 +50384,7 @@
   <dimension ref="A2:B190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
